--- a/Assessment 1 Team Contribution Sheet code review 2.xlsx
+++ b/Assessment 1 Team Contribution Sheet code review 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nroi-my.sharepoint.com/personal/sonia_gruszczynska_networkroi_co_uk/Documents/NAPIER/YEAR 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggiewoodward/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C8E61D-5D03-4B4D-B159-2DD577905F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78259DD-9CEC-4942-808B-FD5C88B105C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8960" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,20 +621,20 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -664,11 +664,13 @@
       <c r="D4" s="7">
         <v>25</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>25</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -678,11 +680,13 @@
       <c r="D5" s="7">
         <v>25</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>25</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -692,11 +696,13 @@
       <c r="D6" s="7">
         <v>25</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>25</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -706,11 +712,13 @@
       <c r="D7" s="7">
         <v>25</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>25</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -730,7 +738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
@@ -740,10 +748,10 @@
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
   </sheetData>
